--- a/classification/droptc/sentence/neo-bert/freeze/70681460/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/70681460/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6730771064758301</v>
+        <v>0.8271194100379944</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5078396797180176</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3650628924369812</v>
+        <v>0.6309831738471985</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.579798698425293</v>
+        <v>0.7503078579902649</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5612571239471436</v>
+        <v>0.9972846508026123</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8961237072944641</v>
+        <v>0.998238205909729</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8971556425094604</v>
+        <v>0.9837332367897034</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4686516523361206</v>
+        <v>0.9792535305023193</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6923354864120483</v>
+        <v>0.9837332367897034</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9095551371574402</v>
+        <v>0.9847514033317566</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7799524068832397</v>
+        <v>0.9901527762413025</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.9917094111442566</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5283405184745789</v>
+        <v>0.9889153838157654</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6856650114059448</v>
+        <v>0.5217154026031494</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4893112480640411</v>
+        <v>0.7780084609985352</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8649533987045288</v>
+        <v>0.9726497530937195</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6412004232406616</v>
+        <v>0.5800503492355347</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4746820628643036</v>
+        <v>0.9959796667098999</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.37291419506073</v>
+        <v>0.6855909824371338</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9255169630050659</v>
+        <v>0.9975124597549438</v>
       </c>
     </row>
     <row r="22">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3277278244495392</v>
+        <v>0.9815380573272705</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7533361315727234</v>
+        <v>0.9912183880805969</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9530748128890991</v>
+        <v>0.997337281703949</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8880828022956848</v>
+        <v>0.5893367528915405</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8960761427879333</v>
+        <v>0.7876507639884949</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8921910524368286</v>
+        <v>0.9983417987823486</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5778007507324219</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8745355606079102</v>
+        <v>0.9949724674224854</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9710404872894287</v>
+        <v>0.9775935411453247</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8220316171646118</v>
+        <v>0.969822108745575</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6980884075164795</v>
+        <v>0.7788292765617371</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5160571336746216</v>
+        <v>0.9685382843017578</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7494834661483765</v>
+        <v>0.9856776595115662</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6001903414726257</v>
+        <v>0.9982640147209167</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7607138752937317</v>
+        <v>0.9973662495613098</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9527840614318848</v>
+        <v>0.9737862944602966</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.759778618812561</v>
+        <v>0.9931796789169312</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9022776484489441</v>
+        <v>0.9310199618339539</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3445133566856384</v>
+        <v>0.3831416070461273</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8583511114120483</v>
+        <v>0.9807351231575012</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8981391787528992</v>
+        <v>0.9836615920066833</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7015906572341919</v>
+        <v>0.9928721785545349</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.931117832660675</v>
+        <v>0.5800276398658752</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.75882887840271</v>
+        <v>0.9687078595161438</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5814164280891418</v>
+        <v>0.9439600110054016</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7987951040267944</v>
+        <v>0.8652013540267944</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9376162886619568</v>
+        <v>0.9944391250610352</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.29551762342453</v>
+        <v>0.9985184073448181</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8812766671180725</v>
+        <v>0.9991903901100159</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7944670915603638</v>
+        <v>0.6051012277603149</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.534981906414032</v>
+        <v>0.7773436307907104</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5015837550163269</v>
+        <v>0.9991903901100159</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.8808801770210266</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3814744651317596</v>
+        <v>0.9995811581611633</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.582639753818512</v>
+        <v>0.9992783665657043</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7525647878646851</v>
+        <v>0.9902295470237732</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7833780646324158</v>
+        <v>0.9692940711975098</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7233133316040039</v>
+        <v>0.9941771030426025</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.9761855006217957</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2694355249404907</v>
+        <v>0.9672161936759949</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8186367154121399</v>
+        <v>0.993120551109314</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8572176694869995</v>
+        <v>0.8897929191589355</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.550618588924408</v>
+        <v>0.8456505537033081</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4893112480640411</v>
+        <v>0.9970206618309021</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8988803029060364</v>
+        <v>0.9970206618309021</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6865829825401306</v>
+        <v>0.8326846361160278</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4616992473602295</v>
+        <v>0.9970206618309021</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8634899258613586</v>
+        <v>0.9403573274612427</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5394613742828369</v>
+        <v>0.9603926539421082</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.923784077167511</v>
+        <v>0.9787039756774902</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6885849833488464</v>
+        <v>0.9963383674621582</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6322499513626099</v>
+        <v>0.9870441555976868</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9635407328605652</v>
+        <v>0.8176338076591492</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8683657050132751</v>
+        <v>0.9216043949127197</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2499899566173553</v>
+        <v>0.9870441555976868</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4125019013881683</v>
+        <v>0.9443695545196533</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4041956961154938</v>
+        <v>0.9870441555976868</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9489645957946777</v>
+        <v>0.9997817873954773</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9360370635986328</v>
+        <v>0.9844064712524414</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8919259309768677</v>
+        <v>0.8188705444335938</v>
       </c>
     </row>
     <row r="82">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5438804030418396</v>
+        <v>0.9844064712524414</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5033320784568787</v>
+        <v>0.488601416349411</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7204189300537109</v>
+        <v>0.488601416349411</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8352548480033875</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9049477577209473</v>
+        <v>0.9976844787597656</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8716906905174255</v>
+        <v>0.9450698494911194</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4399340450763702</v>
+        <v>0.9906065464019775</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8771570324897766</v>
+        <v>0.9423641562461853</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9095551371574402</v>
+        <v>0.997788667678833</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.9974404573440552</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9647929072380066</v>
+        <v>0.9968286156654358</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4684100747108459</v>
+        <v>0.9968858361244202</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9391748309135437</v>
+        <v>0.9966357350349426</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7110865116119385</v>
+        <v>0.9969954490661621</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7570755481719971</v>
+        <v>0.7444930076599121</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4197419285774231</v>
+        <v>0.9078661799430847</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9022776484489441</v>
+        <v>0.9986851811408997</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9459097981452942</v>
+        <v>0.491270512342453</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9159392118453979</v>
+        <v>0.9845197200775146</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4557488858699799</v>
+        <v>0.8582586646080017</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5462988018989563</v>
+        <v>0.8205850720405579</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9611948728561401</v>
+        <v>0.639423131942749</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3874320089817047</v>
+        <v>0.892642617225647</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9450070261955261</v>
+        <v>0.9939185380935669</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4360493719577789</v>
+        <v>0.9668914675712585</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3717950582504272</v>
+        <v>0.880790650844574</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9849978089332581</v>
+        <v>0.9723571538925171</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5099549889564514</v>
+        <v>0.8800944685935974</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8622664213180542</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7127552628517151</v>
+        <v>0.9553071856498718</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8255085349082947</v>
+        <v>0.9479554891586304</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5488904118537903</v>
+        <v>0.9591789841651917</v>
       </c>
     </row>
     <row r="114">
@@ -3619,14 +3619,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4143694639205933</v>
+        <v>0.940669059753418</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8567067980766296</v>
+        <v>0.8303020596504211</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4873498678207397</v>
+        <v>0.9196817874908447</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9527840614318848</v>
+        <v>0.9987754225730896</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6775407791137695</v>
+        <v>0.9447610378265381</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.4608893394470215</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7077771425247192</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6728278994560242</v>
+        <v>0.9750823378562927</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.759778618812561</v>
+        <v>0.9987971782684326</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6952527761459351</v>
+        <v>0.9750823378562927</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8079608082771301</v>
+        <v>0.9987971782684326</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8832739591598511</v>
+        <v>0.9750823378562927</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5266053676605225</v>
+        <v>0.9999649524688721</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5980679392814636</v>
+        <v>0.5410963892936707</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8717879056930542</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7377241253852844</v>
+        <v>0.4562245011329651</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4871386885643005</v>
+        <v>0.7146757245063782</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7307757139205933</v>
+        <v>0.9995349645614624</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4248335957527161</v>
+        <v>0.3964777886867523</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.579798698425293</v>
+        <v>0.9927265644073486</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.8938711285591125</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9539397954940796</v>
+        <v>0.8668849468231201</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.9738754630088806</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4752003848552704</v>
+        <v>0.995020866394043</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6281024217605591</v>
+        <v>0.8047068119049072</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7831631898880005</v>
+        <v>0.9963890314102173</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.759778618812561</v>
+        <v>0.9839821457862854</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4963376224040985</v>
+        <v>0.9602978825569153</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6867769360542297</v>
+        <v>0.5691255927085876</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8648650646209717</v>
+        <v>0.9986708164215088</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9508225321769714</v>
+        <v>0.5691255927085876</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7110865116119385</v>
+        <v>0.9966557025909424</v>
       </c>
     </row>
     <row r="147">
@@ -4543,14 +4543,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6256992220878601</v>
+        <v>0.9403573274612427</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.7884162068367004</v>
+        <v>0.9575486779212952</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6952527761459351</v>
+        <v>0.9355176687240601</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7068625688552856</v>
+        <v>0.5716459155082703</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9339752793312073</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8252190351486206</v>
+        <v>0.8989286422729492</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4210171401500702</v>
+        <v>0.99956876039505</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7397879958152771</v>
+        <v>0.9829139113426208</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9040619134902954</v>
+        <v>0.9941679239273071</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.957048237323761</v>
+        <v>0.9689813256263733</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.3445133566856384</v>
+        <v>0.9928702712059021</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9348208904266357</v>
+        <v>0.978367030620575</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8211673498153687</v>
+        <v>0.994356095790863</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6952527761459351</v>
+        <v>0.5494953989982605</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4693939983844757</v>
+        <v>0.9962718486785889</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6001903414726257</v>
+        <v>0.9823499917984009</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6366186141967773</v>
+        <v>0.7814615368843079</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9255169630050659</v>
+        <v>0.9812729358673096</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4893112480640411</v>
+        <v>0.9961316585540771</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9891690015792847</v>
+        <v>0.9502617120742798</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6583656668663025</v>
+        <v>0.9499384164810181</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3814981281757355</v>
+        <v>0.4344815015792847</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7589271068572998</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8109133839607239</v>
+        <v>0.9499384164810181</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9346963167190552</v>
+        <v>0.8719246387481689</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8747924566268921</v>
+        <v>0.9976884126663208</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5374557971954346</v>
+        <v>0.9905349612236023</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.797735869884491</v>
+        <v>0.9926929473876953</v>
       </c>
     </row>
     <row r="175">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5747149586677551</v>
+        <v>0.9905349612236023</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6867573857307434</v>
+        <v>0.9905349612236023</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7259220480918884</v>
+        <v>0.9926929473876953</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.592850923538208</v>
+        <v>0.9937275648117065</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7776263952255249</v>
+        <v>0.9588468670845032</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8800548315048218</v>
+        <v>0.9865084886550903</v>
       </c>
     </row>
     <row r="181">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4195482134819031</v>
+        <v>0.9416177272796631</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.4505630433559418</v>
+        <v>0.9902886152267456</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.6703002452850342</v>
+        <v>0.9833343625068665</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7823498845100403</v>
+        <v>0.9994038343429565</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8738299012184143</v>
+        <v>0.998596727848053</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8929499983787537</v>
+        <v>0.9856287240982056</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4684100747108459</v>
+        <v>0.9755714535713196</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8265992999076843</v>
+        <v>0.9966205358505249</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7015906572341919</v>
+        <v>0.9970697164535522</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8788599371910095</v>
+        <v>0.9996516704559326</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8996289372444153</v>
+        <v>0.5488885045051575</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7392199635505676</v>
+        <v>0.9959171414375305</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8699809908866882</v>
+        <v>0.8975778222084045</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5771220922470093</v>
+        <v>0.9550648927688599</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7387009859085083</v>
+        <v>0.9024235606193542</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9026138782501221</v>
+        <v>0.998970627784729</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.4222876727581024</v>
+        <v>0.9982267022132874</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7015906572341919</v>
+        <v>0.9991536140441895</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5092134475708008</v>
+        <v>0.8739195466041565</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8323425650596619</v>
+        <v>0.6584843993186951</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3862897753715515</v>
+        <v>0.9979537725448608</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.4401812553405762</v>
+        <v>0.4906363487243652</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6913197636604309</v>
+        <v>0.8270322680473328</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4041347205638885</v>
+        <v>0.9603574275970459</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9672282338142395</v>
+        <v>0.6316811442375183</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.98260098695755</v>
+        <v>0.999116837978363</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8479238152503967</v>
+        <v>0.9700784683227539</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7412689328193665</v>
+        <v>0.9412114024162292</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.710865318775177</v>
+        <v>0.7781074643135071</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4022749960422516</v>
+        <v>0.9873409867286682</v>
       </c>
     </row>
   </sheetData>
